--- a/data/income_statement/2digits/size/45_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/45_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>45-Wholesale and retail trade and repair of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>45-Wholesale and retail trade and repair of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,641 +841,726 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>22715611.78983</v>
+        <v>22426022.92897</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>36419275.05696</v>
+        <v>36207495.57544</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>53676864.01124001</v>
+        <v>53380262.20278</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>56774439.06156</v>
+        <v>56440134.07881</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>60877538.37459</v>
+        <v>60469945.8569</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>72356601.54773001</v>
+        <v>71833211.56664</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>96198451.79651001</v>
+        <v>96262086.88319999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>108015682.69008</v>
+        <v>113225564.88615</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>146954794.37048</v>
+        <v>145803243.65668</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>114777255.29192</v>
+        <v>113707725.0853</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>123678484.7884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>122227003.03928</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>230178005.015</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>21247808.26272</v>
+        <v>20997894.23723</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>34482344.10079</v>
+        <v>34281806.85201</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>50946027.19152001</v>
+        <v>50667587.53538001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>52839394.82849</v>
+        <v>52614225.52661999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>57189478.59082</v>
+        <v>56845409.24501999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>67609378.14945</v>
+        <v>67147484.23003</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>90249936.82785</v>
+        <v>90438731.62323999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>101555933.27355</v>
+        <v>105870666.37789</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>135839280.63592</v>
+        <v>134795711.97812</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>102568313.8125</v>
+        <v>101654610.4047</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>108520006.3575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>107215545.18128</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>201585905.749</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>568221.3441799999</v>
+        <v>544420.81031</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>775536.82337</v>
+        <v>770536.10138</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1089088.13203</v>
+        <v>1087169.74013</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2025929.11446</v>
+        <v>1951973.5614</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1949707.81198</v>
+        <v>1914310.67495</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2436065.97303</v>
+        <v>2397477.77486</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2900152.45169</v>
+        <v>2761996.73565</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>3055682.85649</v>
+        <v>3890394.389810001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>6481986.35207</v>
+        <v>6420546.8543</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>8893167.603360001</v>
+        <v>8800605.45654</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>11562193.49623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11501973.39456</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>22641031.293</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>899582.1829299999</v>
+        <v>883707.88143</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1161394.1328</v>
+        <v>1155152.62205</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1641748.68769</v>
+        <v>1625504.92727</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1909115.11861</v>
+        <v>1873934.99079</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1738351.97179</v>
+        <v>1710225.93693</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2311157.42525</v>
+        <v>2288249.56175</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>3048362.51697</v>
+        <v>3061358.52431</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>3404066.56004</v>
+        <v>3464504.11845</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>4633527.382490001</v>
+        <v>4586984.82426</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3315773.87606</v>
+        <v>3252509.22406</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>3596284.93467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3509484.46344</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>5951067.973</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1471371.00637</v>
+        <v>1440585.37719</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2246630.94665</v>
+        <v>2242594.93146</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3097916.81408</v>
+        <v>3092777.85364</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3768939.4649</v>
+        <v>3807876.93141</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>4161590.11517</v>
+        <v>4147457.10759</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>4749108.93849</v>
+        <v>4736827.52647</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>5615524.27966</v>
+        <v>5624106.527190001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>6615815.325639999</v>
+        <v>6674391.63112</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>7912539.49314</v>
+        <v>7874678.60653</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>7600490.30442</v>
+        <v>7559666.57242</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>8049181.707350001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>7969147.447480001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>12593806.4</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>239642.2717</v>
+        <v>220089.35247</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>322244.32488</v>
+        <v>320687.20708</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>474672.04967</v>
+        <v>473698.27042</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>525632.12719</v>
+        <v>518968.64962</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>585229.79102</v>
+        <v>581403.17406</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>714164.2013899999</v>
+        <v>708343.5471600001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>707411.4408300001</v>
+        <v>695997.5084799998</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>943892.55244</v>
+        <v>946266.5572799999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1003035.12163</v>
+        <v>991054.0526300002</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1243502.95909</v>
+        <v>1220793.52054</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1302300.48166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1276197.90558</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1374508.879</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1075152.09148</v>
+        <v>1067519.04449</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1605111.46917</v>
+        <v>1602651.31888</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2086064.66655</v>
+        <v>2082031.20783</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2693520.70565</v>
+        <v>2698205.14867</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3025243.74552</v>
+        <v>3016556.69562</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3267031.57528</v>
+        <v>3261866.82366</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3936175.69925</v>
+        <v>3943534.28316</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4503410.755150001</v>
+        <v>4550511.60654</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>5618545.785770001</v>
+        <v>5606426.53371</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>5226134.683959999</v>
+        <v>5214540.10226</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>5829882.83425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5783326.19316</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>9519021.526000001</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>156576.64319</v>
+        <v>152976.98023</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>319275.1526</v>
+        <v>319256.4055</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>537180.09786</v>
+        <v>537048.3753899999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>549786.63206</v>
+        <v>590703.13312</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>551116.57863</v>
+        <v>549497.2379099999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>767913.16182</v>
+        <v>766617.1556500001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>971937.13958</v>
+        <v>984574.73555</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1168512.01805</v>
+        <v>1177613.4673</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1290958.58574</v>
+        <v>1277198.02019</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1130852.66137</v>
+        <v>1124332.94962</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>916998.39144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>909623.34874</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1700275.995</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>21244240.78346</v>
+        <v>20985437.55178</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>34172644.11031</v>
+        <v>33964900.64398</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>50578947.19716</v>
+        <v>50287484.34914</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>53005499.59666</v>
+        <v>52632257.1474</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>56715948.25942</v>
+        <v>56322488.74931</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>67607492.60924</v>
+        <v>67096384.04016999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>90582927.51685001</v>
+        <v>90637980.35600999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>101399867.36444</v>
+        <v>106551173.25503</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>139042254.87734</v>
+        <v>137928565.05015</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>107176764.9875</v>
+        <v>106148058.51288</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>115629303.08105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>114257855.5918</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>217584198.615</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>18785327.32395</v>
+        <v>18566190.38298</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>30431977.41573</v>
+        <v>30256264.20849</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>45721698.32746</v>
+        <v>45472248.62173</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>47737177.33356</v>
+        <v>47424528.65605</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>51293223.87476999</v>
+        <v>50965712.22357</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>61297426.92106</v>
+        <v>60854215.03491</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>82284984.50781</v>
+        <v>82363481.13244</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>91671861.90282001</v>
+        <v>96481806.60981999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>125468120.41412</v>
+        <v>124550155.85924</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>94724929.96277</v>
+        <v>93855080.9409</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>102438650.26297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>101295948.25593</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>195124155.122</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>72057.91146999999</v>
+        <v>67826.27698000001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>281862.20306</v>
+        <v>277898.0554</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>349164.51737</v>
+        <v>332910.43266</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1766731.35272</v>
+        <v>1737475.97964</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>542117.68287</v>
+        <v>548461.0843700001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>725051.44754</v>
+        <v>711933.8698999999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1548402.13838</v>
+        <v>1549594.38255</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1677758.25987</v>
+        <v>1666008.85854</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2639461.1223</v>
+        <v>2627025.8891</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1455826.47233</v>
+        <v>1425014.63827</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1605647.33036</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1535280.93084</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2663058.742</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>18156626.88944</v>
+        <v>17951690.91897</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>29415147.72373</v>
+        <v>29255390.63619</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>44293215.0092</v>
+        <v>44079293.53475</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>44618453.86103</v>
+        <v>44343733.07776</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>49232296.42264</v>
+        <v>48957645.39599001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>58603862.96541</v>
+        <v>58240426.38227</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>78368561.27240001</v>
+        <v>78413785.21073999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>86988976.01329</v>
+        <v>91917001.38832</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>118822336.02047</v>
+        <v>118027449.91534</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>90435250.13877</v>
+        <v>89726268.43364</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>97979057.73661999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>97157457.82682998</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>188296553.915</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>531109.49647</v>
+        <v>521157.40698</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>614597.2621599999</v>
+        <v>603390.85361</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>950783.9096899999</v>
+        <v>933217.82141</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1196441.59382</v>
+        <v>1189881.75393</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1310878.75291</v>
+        <v>1262691.81673</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1754842.69953</v>
+        <v>1698709.39414</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2064154.95884</v>
+        <v>2099418.14365</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2593192.22742</v>
+        <v>2513354.35242</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>3356535.37328</v>
+        <v>3269916.51196</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2380026.51253</v>
+        <v>2277155.98889</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2254504.6117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2063564.33359</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3063997.592</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>25533.02657</v>
+        <v>25515.78005</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>120370.22678</v>
+        <v>119584.66329</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>128534.8912</v>
+        <v>126826.83291</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>155550.52599</v>
+        <v>153437.84472</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>207931.01635</v>
+        <v>196913.92648</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>213669.80858</v>
+        <v>203145.3886</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>303866.13819</v>
+        <v>300683.3955</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>411935.40224</v>
+        <v>385442.01054</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>649787.8980699999</v>
+        <v>625763.54284</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>453826.83914</v>
+        <v>426641.8801</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>599440.5842899999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>539645.16467</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1100544.873</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>2458913.45951</v>
+        <v>2419247.1688</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>3740666.69458</v>
+        <v>3708636.43549</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>4857248.8697</v>
+        <v>4815235.72741</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>5268322.263099999</v>
+        <v>5207728.491350001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>5422724.38465</v>
+        <v>5356776.525739999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>6310065.688180001</v>
+        <v>6242169.005259999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>8297943.009040001</v>
+        <v>8274499.22357</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>9728005.461620001</v>
+        <v>10069366.64521</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>13574134.46322</v>
+        <v>13378409.19091</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>12451835.02473</v>
+        <v>12292977.57198</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>13190652.81808</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>12961907.33587</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>22460043.493</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1978260.35612</v>
+        <v>1916571.01722</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2783568.28888</v>
+        <v>2731504.09311</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3482229.821419999</v>
+        <v>3419105.72722</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>4097497.17789</v>
+        <v>4030407.08221</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3977170.89927</v>
+        <v>3898238.98351</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>4516163.35876</v>
+        <v>4447862.37163</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>5741003.471100001</v>
+        <v>5710041.27105</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>7034106.998379999</v>
+        <v>7181781.93516</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>8921060.701049998</v>
+        <v>8804395.38576</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>8080149.46539</v>
+        <v>7921749.9271</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>8615217.43065</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>8423733.921560001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>12156922.025</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>660.7685</v>
+        <v>617.2931</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>261.16708</v>
@@ -1583,19 +1569,19 @@
         <v>42.04335</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>841.2766899999999</v>
+        <v>156.71068</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>4197.41666</v>
+        <v>586.08154</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>676.47739</v>
+        <v>664.21243</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>12177.42757</v>
+        <v>12174.45293</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>150.2168</v>
+        <v>141.65675</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>16432.93592</v>
@@ -1606,479 +1592,544 @@
       <c r="M21" s="48" t="n">
         <v>390.4532</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1103363.40473</v>
+        <v>1082963.82111</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1690486.73713</v>
+        <v>1672095.76919</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1989528.06682</v>
+        <v>1978552.71524</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2399281.621890001</v>
+        <v>2383132.82382</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2162413.41408</v>
+        <v>2134427.86277</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2333829.57088</v>
+        <v>2304321.00738</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>3126636.8799</v>
+        <v>3132644.21295</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3754819.96643</v>
+        <v>3873668.07519</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>4711259.670070001</v>
+        <v>4673998.107139999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4312899.698139999</v>
+        <v>4246326.67355</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4491202.185649999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4424317.24224</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>6174495.454</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>874236.1828899999</v>
+        <v>832989.90301</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1092820.38467</v>
+        <v>1059147.15684</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1492659.71125</v>
+        <v>1440510.96863</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1697374.27931</v>
+        <v>1647117.54771</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1810560.06853</v>
+        <v>1763225.0392</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2181657.31049</v>
+        <v>2142877.15182</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2602189.163630001</v>
+        <v>2565222.60517</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3279136.81515</v>
+        <v>3307972.20322</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>4193368.095059999</v>
+        <v>4113964.3427</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>3763057.3086</v>
+        <v>3671230.7949</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>4123624.7918</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3999026.22612</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5982424.871</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>480653.10339</v>
+        <v>502676.1515800001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>957098.4057</v>
+        <v>977132.34238</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1375019.04828</v>
+        <v>1396130.00019</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1170825.08521</v>
+        <v>1177321.40914</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1445553.48538</v>
+        <v>1458537.54223</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1793902.32942</v>
+        <v>1794306.63363</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2556939.53794</v>
+        <v>2564457.95252</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2693898.46324</v>
+        <v>2887584.71005</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>4653073.76217</v>
+        <v>4574013.805149999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4371685.55934</v>
+        <v>4371227.644880001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4575435.38743</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4538173.414310001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>10303121.468</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5540919.129579999</v>
+        <v>5449856.399019999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>3735959.55172</v>
+        <v>3672349.25632</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1582393.37672</v>
+        <v>1517589.23225</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1659038.00504</v>
+        <v>1594708.79292</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4770420.14166</v>
+        <v>4576247.362699999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2921726.61339</v>
+        <v>2707417.21524</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3930855.80953</v>
+        <v>3738488.97915</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4777643.63378</v>
+        <v>5321035.28104</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>6112428.32516</v>
+        <v>5931492.61559</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>7953929.756360001</v>
+        <v>7618729.740180001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>14518723.36767</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>14209967.41473</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>10617013.234</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>9516.067229999999</v>
+        <v>3661.6188</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>41470.78914</v>
+        <v>15138.90489</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>21876.66843</v>
+        <v>12581.90338</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>55928.97933000001</v>
+        <v>44076.04429999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>28780.89252</v>
+        <v>15166.97113</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>65069.35864</v>
+        <v>53008.13324</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>126521.86446</v>
+        <v>108640.89389</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>82565.38521000001</v>
+        <v>62552.94730000001</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>125025.63039</v>
+        <v>90325.24192999999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>58163.582</v>
+        <v>44574.80016000001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>92281.97897</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>69794.30266999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>13479.583</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1585.71801</v>
+        <v>1081.42541</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>2779.19525</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>18690.2585</v>
+        <v>12465.01376</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>7709.97039</v>
+        <v>6970.49485</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>7646.28976</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>10827.70579</v>
+        <v>10519.57169</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>10287.23408</v>
+        <v>12695.80708</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>30963.33515</v>
+        <v>20931.85131</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>20804.63903</v>
+        <v>10418.54037</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>17682.50002</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>99024.77132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>58398.7648</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>96960.898</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>93319.91732000001</v>
+        <v>69654.75448999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>84002.58903999999</v>
+        <v>74733.87057000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>76009.14891000002</v>
+        <v>68202.35389999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>96092.85764999999</v>
+        <v>81523.42726000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>86439.73513</v>
+        <v>75688.86264000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>95315.59506000001</v>
+        <v>83812.24527</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>128042.22805</v>
+        <v>114683.43826</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>149735.70421</v>
+        <v>137649.02821</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>257452.56053</v>
+        <v>232794.62264</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>418605.57212</v>
+        <v>397359.04337</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>693365.24703</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>634663.79674</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>871088.118</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>29142.57959</v>
+        <v>25313.71814</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>33552.96937</v>
+        <v>33473.33597</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>32921.19331</v>
+        <v>32581.50349</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>40034.96235</v>
+        <v>39992.22676</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>41609.32908</v>
+        <v>42107.52538</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>45012.06727000001</v>
+        <v>44744.58951000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>63776.12745</v>
+        <v>63795.0938</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>84538.3838</v>
+        <v>89867.07971999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>118989.72604</v>
+        <v>108790.10335</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>123190.63572</v>
+        <v>122873.81821</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>130747.24117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>130468.35147</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>143883.586</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>15507.25617</v>
+        <v>14523.26292</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>12053.13302</v>
+        <v>12036.52602</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>18028.66635</v>
+        <v>17686.95008</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>16737.85548</v>
+        <v>16526.67378</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>20060.05876</v>
+        <v>18282.44601</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>41687.47594999999</v>
+        <v>41726.28403</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>35554.97328</v>
+        <v>35728.57427</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>51022.04569000001</v>
+        <v>50847.07991</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>24123.64903</v>
+        <v>23832.95021</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>88586.24936</v>
+        <v>88114.57224000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>38462.86586</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>37634.08498</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>35451.339</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1541.07284</v>
+        <v>1018.23143</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1470.19621</v>
+        <v>1146.25003</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>3779.24908</v>
+        <v>3376.53908</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>5824.57753</v>
+        <v>5529.66151</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>33150.7143</v>
+        <v>32521.58476</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>4826.629510000001</v>
+        <v>4457.74536</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>69189.55752</v>
+        <v>69228.86296</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>5204.62358</v>
+        <v>2317.19108</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>9879.436949999999</v>
+        <v>6749.26996</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>18306.42082</v>
+        <v>17627.96677</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>28163.22002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>28054.83962</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>21234.809</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>5125006.72305</v>
+        <v>5096503.43059</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>3260525.86853</v>
+        <v>3246061.60331</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>975139.8095099999</v>
+        <v>956419.8855200001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>920867.3112100001</v>
+        <v>901049.99678</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3947988.59807</v>
+        <v>3890647.09458</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1948014.76515</v>
+        <v>1887034.07756</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2640172.26973</v>
+        <v>2509574.4129</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3320858.36503</v>
+        <v>3948383.77745</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4227601.20872</v>
+        <v>4149353.26293</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5735724.910940001</v>
+        <v>5486724.8266</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>11819566.89863</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>11677801.02272</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>7574180.509</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>4447.1364</v>
+        <v>4341.130470000001</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>4049.8793</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>13919.02552</v>
+        <v>13918.79748</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>25734.97836</v>
+        <v>25697.86796</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>20582.24127</v>
+        <v>7204.265439999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>23348.33501</v>
+        <v>23344.89753</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>24827.31392</v>
+        <v>19152.69586</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>68576.92386</v>
+        <v>64409.43974</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>24413.49826</v>
+        <v>21082.87968</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>86446.77603000001</v>
+        <v>69234.49416</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>138764.3913</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>132775.38925</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>95863.284</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2105,7 +2156,7 @@
         <v>218.2633</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>1876.9561</v>
+        <v>1859.53423</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
@@ -2113,185 +2164,210 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1131.437</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>260852.65897</v>
+        <v>233758.82677</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>296054.93186</v>
+        <v>282929.69098</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>421180.2949</v>
+        <v>399507.22335</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>490033.50508</v>
+        <v>473269.39206</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>584087.86087</v>
+        <v>486907.9011</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>678395.05587</v>
+        <v>549540.04591</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>831428.5754400002</v>
+        <v>803933.5345300001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>983960.60395</v>
+        <v>943858.6230199998</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1302261.02011</v>
+        <v>1286286.21029</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1407223.10935</v>
+        <v>1374537.71865</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1478346.75337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1440376.86248</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1763739.671</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>5317833.77134</v>
+        <v>5276329.283540001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3497215.50207</v>
+        <v>3473848.97213</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1427813.64303</v>
+        <v>1364074.27363</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1272823.26558</v>
+        <v>1231595.12508</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4739230.88136</v>
+        <v>4558098.15558</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2532669.81335</v>
+        <v>2349623.9559</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3510283.89792</v>
+        <v>3354144.050439999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4428659.40285</v>
+        <v>5052238.128280001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>6069248.95433</v>
+        <v>5886240.855930001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>8011969.82048</v>
+        <v>7683843.69769</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>13253865.85978</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>13052567.03808</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>8984519.881999999</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>24061.44683</v>
+        <v>23814.42305</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>38248.69869</v>
+        <v>38208.20629</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>58236.90769</v>
+        <v>58225.1054</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>99913.21582000001</v>
+        <v>99721.93055000002</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>90244.02721</v>
+        <v>89876.95039999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>113151.30722</v>
+        <v>112419.4738</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>70549.25225000001</v>
+        <v>70482.4578</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>63944.93997000001</v>
+        <v>176654.18724</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>273167.7713</v>
+        <v>271527.84042</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>306163.30129</v>
+        <v>306136.9535300001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>301125.70479</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>300341.77167</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>244325.05</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>49265.04653</v>
+        <v>47397.81739</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>23313.88224</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>33880.87477</v>
+        <v>33375.56566</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>66121.08710999999</v>
+        <v>55906.16014</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>46785.13187</v>
+        <v>42587.00307999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>68035.04293</v>
+        <v>67670.45140999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>76344.76983</v>
+        <v>76284.59196999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>108943.96324</v>
+        <v>108705.81377</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>117604.11724</v>
+        <v>114640.76939</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>158524.86501</v>
+        <v>155450.28116</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>117758.43603</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>113429.66412</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>224538.606</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>208.59381</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>56.96882</v>
+        <v>52.72049</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>366.47289</v>
+        <v>5.40128</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>89.80127</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>79.99834</v>
+        <v>1.88266</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>625.13823</v>
+        <v>25.00623</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>11510.63804</v>
@@ -2300,97 +2376,112 @@
         <v>7.5017</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>23.39277</v>
+        <v>21.27877</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>44524.09101</v>
+        <v>44208.34978</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>87516.70055000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>85249.04062</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>17121.77</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>5092847.54529</v>
+        <v>5061237.56262</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>3248548.86092</v>
+        <v>3230846.90606</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1089216.92714</v>
+        <v>1066234.23854</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>820653.5972999999</v>
+        <v>799547.45464</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>4161184.76229</v>
+        <v>4087071.47144</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1829090.72946</v>
+        <v>1762877.04909</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2898428.09168</v>
+        <v>2758204.72072</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3707825.90336</v>
+        <v>4277124.293</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>4847991.7042</v>
+        <v>4703300.20428</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>6556449.76266</v>
+        <v>6267703.33797</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>11861206.02574</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>11689630.8641</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>7616537.282</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>1968.28782</v>
+        <v>1451.01237</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>4007.3203</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>17569.64773</v>
+        <v>17560.65329</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>26877.46864</v>
+        <v>25301.92167</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>20708.06411</v>
+        <v>8204.11368</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>23966.00064</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>24839.54522</v>
+        <v>20009.46845</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>29483.42524</v>
+        <v>24996.87658</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>66729.97336</v>
+        <v>63074.48216</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>106547.16808</v>
+        <v>89036.70922</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>124267.23517</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>119488.60307</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>115436.431</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.00865</v>
@@ -2425,365 +2516,415 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>22.288</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>149482.84241</v>
+        <v>142219.86565</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>183039.7711</v>
+        <v>177419.93675</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>228172.84806</v>
+        <v>188303.34471</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>259127.15998</v>
+        <v>250986.92135</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>420158.2165</v>
+        <v>330286.0532800001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>497801.59487</v>
+        <v>382665.97473</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>428611.6009</v>
+        <v>417652.17346</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>518442.48813</v>
+        <v>464738.27478</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>763731.99546</v>
+        <v>733676.28091</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>839760.6324300001</v>
+        <v>821308.06603</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>761991.7574999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>744427.0945</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>766538.455</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>473521.37733</v>
+        <v>425027.73734</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>364599.36734</v>
+        <v>332377.33388</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>747297.41301</v>
+        <v>704595.0615699999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>730584.3106600001</v>
+        <v>693312.57099</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>961928.59741</v>
+        <v>913864.24239</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1065310.75264</v>
+        <v>991382.1625099999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1585921.99841</v>
+        <v>1514911.18052</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2277366.57978</v>
+        <v>2199432.41887</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>3171728.18264</v>
+        <v>3080622.591190001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>5039942.48516</v>
+        <v>4946013.87863</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>4489514.962560001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4279956.25972</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3616860.235</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>426792.58882</v>
+        <v>390344.84554</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>318121.09887</v>
+        <v>309955.82292</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>647299.9169099999</v>
+        <v>629131.04356</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>702133.53529</v>
+        <v>668642.0105500001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>896308.3445199999</v>
+        <v>854853.82173</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>993095.1083199999</v>
+        <v>932694.27351</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1473409.44687</v>
+        <v>1423341.08914</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2126010.6113</v>
+        <v>2055883.06364</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>2952986.25905</v>
+        <v>2870170.35642</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>4708261.45818</v>
+        <v>4614332.851650001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>4325441.99628</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>4125841.16729</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3419031.47</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>46728.78851</v>
+        <v>34682.8918</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>46478.26847</v>
+        <v>22421.51096</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>99997.49609999999</v>
+        <v>75464.01800999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>28450.77537</v>
+        <v>24670.56044</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>65620.25289</v>
+        <v>59010.42066</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>72215.64432000001</v>
+        <v>58687.889</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>112512.55154</v>
+        <v>91570.09138</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>151355.96848</v>
+        <v>143549.35523</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>218741.92359</v>
+        <v>210452.23477</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>331681.02698</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>164072.96628</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>154115.09243</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>197828.765</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>230217.0843</v>
+        <v>251175.52972</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>831243.0880099999</v>
+        <v>843255.29269</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>782301.36896</v>
+        <v>845049.89724</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>826455.51401</v>
+        <v>847122.50599</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>514814.14827</v>
+        <v>562822.50696</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1117648.37682</v>
+        <v>1160717.73046</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1391589.45114</v>
+        <v>1433891.70071</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>765516.1143900001</v>
+        <v>956949.4439399999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1524524.95036</v>
+        <v>1538642.97362</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-726296.9899400002</v>
+        <v>-639900.1912600001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1350777.93276</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1415617.53124</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>8318754.585</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>137661.27064</v>
+        <v>132653.50038</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>150747.06024</v>
+        <v>146370.97142</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>610726.56501</v>
+        <v>272417.79547</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>353051.65779</v>
+        <v>322500.9272100001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>544531.7906000001</v>
+        <v>501329.80387</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>542473.37308</v>
+        <v>506606.1278</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>584217.8820600001</v>
+        <v>538677.8200699999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>730068.21988</v>
+        <v>742621.5963399999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>927444.88744</v>
+        <v>882159.7986500001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>781425.90335</v>
+        <v>736113.77639</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>755219.05868</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>678433.9977599999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1015390.864</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1366.89499</v>
+        <v>1269.43249</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1857.03645</v>
+        <v>1845.23295</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>4520.615589999999</v>
+        <v>4503.26499</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2805.85773</v>
+        <v>2762.11997</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>10165.99439</v>
+        <v>10824.81841</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>15857.87736</v>
+        <v>17168.69987</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>13436.76767</v>
+        <v>14674.85761</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>16845.12916</v>
+        <v>20726.33291</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>8838.49323</v>
+        <v>8696.023130000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>6431.57566</v>
+        <v>6000.991379999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>13025.17943</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>12498.37039</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>7739.282</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>136294.37565</v>
+        <v>131384.06789</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>148890.02379</v>
+        <v>144525.73847</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>606205.94942</v>
+        <v>267914.53048</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>350245.80006</v>
+        <v>319738.80724</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>534365.7962099999</v>
+        <v>490504.98546</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>526615.49572</v>
+        <v>489437.42793</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>570781.1143900001</v>
+        <v>524002.96246</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>713223.09072</v>
+        <v>721895.26343</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>918606.3942100001</v>
+        <v>873463.77552</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>774994.3276899999</v>
+        <v>730112.78501</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>742193.87925</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>665935.62737</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1007651.582</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>53861.46427</v>
+        <v>39165.85762</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>79348.13807</v>
+        <v>77055.14874999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>407844.21154</v>
+        <v>354476.07427</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>93752.09599000002</v>
+        <v>87615.27666</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>127551.40398</v>
+        <v>111469.32634</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>315068.71274</v>
+        <v>250756.24884</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>146668.57008</v>
+        <v>137108.3612</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>314492.9545999999</v>
+        <v>315939.06736</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>296126.33788</v>
+        <v>274764.28683</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>311586.00612</v>
+        <v>296134.68751</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>252729.34618</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>229516.07625</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>416700.791</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>691.5728</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>34.49953</v>
@@ -2792,22 +2933,22 @@
         <v>338.42565</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1093.38268</v>
+        <v>269.0988</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>498.13514</v>
+        <v>23.34989</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>773.72488</v>
+        <v>596.8836</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>688.85318</v>
+        <v>571.4514</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>10837.89747</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>14664.85897</v>
+        <v>14661.84607</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>1016.3457</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>7114.128009999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>177.198</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1964.42518</v>
+        <v>1834.24626</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>3164.6209</v>
+        <v>3151.85129</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>11521.91937</v>
+        <v>11518.74141</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>6207.152730000001</v>
+        <v>6087.435759999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2619.49133</v>
+        <v>2530.91978</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>8311.6818</v>
+        <v>8071.904209999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4168.19758</v>
+        <v>3925.56959</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>13322.30242</v>
+        <v>14122.37445</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>8269.80207</v>
+        <v>8035.06807</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>5715.65263</v>
+        <v>5518.82624</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>8848.625749999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8649.192370000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>81338.89</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>51205.46629</v>
+        <v>37331.61136</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>76149.01764000001</v>
+        <v>73868.79793</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>395983.86652</v>
+        <v>342618.90721</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>86451.56058</v>
+        <v>81258.7421</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>124433.77751</v>
+        <v>108915.05667</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>305983.30606</v>
+        <v>242087.46103</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>141811.51932</v>
+        <v>132611.34021</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>290332.75471</v>
+        <v>290978.79544</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>273191.67684</v>
+        <v>252067.37269</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>304854.00779</v>
+        <v>289599.51557</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>236766.59242</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>213752.75587</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>335184.703</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>314016.89067</v>
+        <v>344663.17248</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>902642.01018</v>
+        <v>912571.1153600001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>985183.7224300001</v>
+        <v>762991.61844</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1085755.07581</v>
+        <v>1082008.15654</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>931794.53489</v>
+        <v>952682.9844900001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1345053.03716</v>
+        <v>1416567.60942</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1829138.76312</v>
+        <v>1835461.15958</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1181091.37967</v>
+        <v>1383631.97292</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>2155843.49992</v>
+        <v>2146038.48544</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-256457.09271</v>
+        <v>-199921.1023800001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1853267.64526</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1864535.45275</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>8917444.658</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>39470.24844</v>
+        <v>35115.57785</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>151167.53369</v>
+        <v>150611.56369</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>192797.74955</v>
+        <v>190494.18401</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>212765.62946</v>
+        <v>210628.53319</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>196234.07666</v>
+        <v>193701.44852</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>272324.74722</v>
+        <v>271401.80919</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>323138.04754</v>
+        <v>322117.7920499999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>243953.13277</v>
+        <v>270376.21349</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>382454.2161199999</v>
+        <v>379425.63448</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>278905.04102</v>
+        <v>266180.02533</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>442492.73146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>430478.2299</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1555143.274</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>274546.64223</v>
+        <v>309547.59463</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>751474.47649</v>
+        <v>761959.5516700001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>792385.97288</v>
+        <v>572497.43443</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>872989.4463499999</v>
+        <v>871379.62335</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>735560.4582299999</v>
+        <v>758981.5359700001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1072728.28994</v>
+        <v>1145165.80023</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1506000.71558</v>
+        <v>1513343.36753</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>937138.2469000001</v>
+        <v>1113255.75943</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1773389.2838</v>
+        <v>1766612.85096</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-535362.13373</v>
+        <v>-466101.12771</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1410774.9138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1434057.22285</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>7362301.384</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>129</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>